--- a/data/raw_data/2018/permits-by-nationality-2018.xlsx
+++ b/data/raw_data/2018/permits-by-nationality-2018.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WPERMITS\Dashboard &amp; Monthly Stats\Website Statistics\2018\Dec 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AC79F262-18A5-4C41-ABEB-A99F99FA467E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C7C39-DA43-40C9-A969-E9F1B939487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18435" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nationality" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nationality!$A$1:$G$109</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>Year</t>
   </si>
@@ -100,9 +112,6 @@
     <t>Colombia</t>
   </si>
   <si>
-    <t>Congo, The Democratic Republic of the</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -130,18 +139,12 @@
     <t>Honduras</t>
   </si>
   <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Iran, Islamic Republic of</t>
-  </si>
-  <si>
     <t>Iraq</t>
   </si>
   <si>
@@ -151,9 +154,6 @@
     <t>Israel</t>
   </si>
   <si>
-    <t>Ivory Coast</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -166,9 +166,6 @@
     <t>Kenya</t>
   </si>
   <si>
-    <t>Korea, Republic of</t>
-  </si>
-  <si>
     <t>Kuwait</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>Libya</t>
   </si>
   <si>
-    <t>Macedonia, The Former Yugoslav Republic of</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Moldova, Republic of</t>
-  </si>
-  <si>
     <t>Morocco</t>
   </si>
   <si>
@@ -217,27 +208,12 @@
     <t>Pakistan</t>
   </si>
   <si>
-    <t>Palestine</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Philippines</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Republic of Serbia</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -259,21 +235,9 @@
     <t>Sudan</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>Tibet</t>
-  </si>
-  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
@@ -292,9 +256,6 @@
     <t>Ukraine</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
@@ -368,6 +329,42 @@
   </si>
   <si>
     <t>Mongolia</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>St. Vincent &amp; Grenadines</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Syria</t>
   </si>
 </sst>
 </file>
@@ -757,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +769,7 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -792,11 +789,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2018</v>
       </c>
@@ -817,7 +813,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -838,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
         <v>7</v>
@@ -859,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
@@ -880,10 +876,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -901,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
         <v>9</v>
@@ -922,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
         <v>10</v>
@@ -943,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -964,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
         <v>12</v>
@@ -985,10 +981,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7">
         <v>2</v>
@@ -1006,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="7" t="s">
         <v>13</v>
@@ -1027,10 +1023,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -1048,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="7" t="s">
         <v>14</v>
@@ -1069,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
         <v>15</v>
@@ -1090,10 +1086,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1282,7 +1278,7 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -1303,7 +1299,7 @@
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>8</v>
@@ -1324,7 +1320,7 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C27" s="7">
         <v>0</v>
@@ -1345,7 +1341,7 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="7">
         <v>2</v>
@@ -1366,7 +1362,7 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="7">
         <v>4</v>
@@ -1387,7 +1383,7 @@
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="7">
         <v>264</v>
@@ -1408,7 +1404,7 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
         <v>3</v>
@@ -1429,7 +1425,7 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C32" s="7">
         <v>3</v>
@@ -1450,7 +1446,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C33" s="7">
         <v>0</v>
@@ -1471,7 +1467,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C34" s="7">
         <v>0</v>
@@ -1492,7 +1488,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="7">
         <v>9</v>
@@ -1513,7 +1509,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
@@ -1534,7 +1530,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
@@ -1555,7 +1551,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -1576,7 +1572,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="7">
         <v>4</v>
@@ -1597,7 +1593,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C40" s="7">
         <v>13</v>
@@ -1618,7 +1614,7 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" s="7">
         <v>3806</v>
@@ -1639,7 +1635,7 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42" s="7">
         <v>15</v>
@@ -1660,7 +1656,7 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="7" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C43" s="7">
         <v>37</v>
@@ -1681,7 +1677,7 @@
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C44" s="7">
         <v>21</v>
@@ -1702,7 +1698,7 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C45" s="7">
         <v>12</v>
@@ -1723,7 +1719,7 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C46" s="7">
         <v>85</v>
@@ -1744,7 +1740,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C47" s="7">
         <v>2</v>
@@ -1765,7 +1761,7 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C48" s="7">
         <v>106</v>
@@ -1786,7 +1782,7 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C49" s="7">
         <v>30</v>
@@ -1807,7 +1803,7 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C50" s="7">
         <v>14</v>
@@ -1828,7 +1824,7 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C51" s="7">
         <v>13</v>
@@ -1849,7 +1845,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
       <c r="B52" s="7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C52" s="7">
         <v>31</v>
@@ -1870,7 +1866,7 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C53" s="7">
         <v>2</v>
@@ -1891,7 +1887,7 @@
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
@@ -1912,7 +1908,7 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C55" s="7">
         <v>33</v>
@@ -1933,7 +1929,7 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C56" s="7">
         <v>1</v>
@@ -1954,7 +1950,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C57" s="7">
         <v>19</v>
@@ -1975,7 +1971,7 @@
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="C58" s="7">
         <v>7</v>
@@ -1996,7 +1992,7 @@
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C59" s="7">
         <v>0</v>
@@ -2017,7 +2013,7 @@
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C60" s="7">
         <v>6</v>
@@ -2038,7 +2034,7 @@
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C61" s="7">
         <v>218</v>
@@ -2059,7 +2055,7 @@
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C62" s="7">
         <v>37</v>
@@ -2080,7 +2076,7 @@
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C63" s="7">
         <v>53</v>
@@ -2101,7 +2097,7 @@
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="7" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C64" s="7">
         <v>4</v>
@@ -2122,7 +2118,7 @@
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -2143,7 +2139,7 @@
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C66" s="7">
         <v>23</v>
@@ -2164,7 +2160,7 @@
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C67" s="7">
         <v>5</v>
@@ -2185,7 +2181,7 @@
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
@@ -2206,7 +2202,7 @@
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C69" s="7">
         <v>50</v>
@@ -2227,7 +2223,7 @@
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C70" s="7">
         <v>47</v>
@@ -2248,7 +2244,7 @@
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C71" s="7">
         <v>152</v>
@@ -2269,7 +2265,7 @@
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
@@ -2290,7 +2286,7 @@
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C73" s="7">
         <v>696</v>
@@ -2311,7 +2307,7 @@
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7">
         <v>7</v>
@@ -2332,7 +2328,7 @@
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C75" s="7">
         <v>0</v>
@@ -2353,7 +2349,7 @@
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C76" s="7">
         <v>6</v>
@@ -2374,7 +2370,7 @@
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C77" s="7">
         <v>771</v>
@@ -2395,7 +2391,7 @@
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="7" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
@@ -2416,7 +2412,7 @@
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -2437,7 +2433,7 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="7" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C80" s="7">
         <v>186</v>
@@ -2458,7 +2454,7 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="7" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -2479,7 +2475,7 @@
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C82" s="7">
         <v>1</v>
@@ -2500,7 +2496,7 @@
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C83" s="7">
         <v>17</v>
@@ -2521,7 +2517,7 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C84" s="7">
         <v>26</v>
@@ -2542,7 +2538,7 @@
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C85" s="7">
         <v>0</v>
@@ -2563,7 +2559,7 @@
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C86" s="7">
         <v>22</v>
@@ -2584,7 +2580,7 @@
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C87" s="7">
         <v>371</v>
@@ -2605,7 +2601,7 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C88" s="7">
         <v>43</v>
@@ -2626,7 +2622,7 @@
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C89" s="7">
         <v>309</v>
@@ -2647,7 +2643,7 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C90" s="7">
         <v>1</v>
@@ -2668,7 +2664,7 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C91" s="7">
         <v>20</v>
@@ -2689,7 +2685,7 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="7" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="C92" s="7">
         <v>28</v>
@@ -2710,7 +2706,7 @@
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C93" s="7">
         <v>24</v>
@@ -2731,7 +2727,7 @@
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C94" s="7">
         <v>0</v>
@@ -2752,7 +2748,7 @@
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="7" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C95" s="7">
         <v>20</v>
@@ -2773,7 +2769,7 @@
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="7" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C96" s="7">
         <v>17</v>
@@ -2794,7 +2790,7 @@
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="7" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C97" s="7">
         <v>251</v>
@@ -2815,7 +2811,7 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="7" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C98" s="7">
         <v>1</v>
@@ -2836,7 +2832,7 @@
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="7" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C99" s="7">
         <v>4</v>
@@ -2857,7 +2853,7 @@
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C100" s="7">
         <v>266</v>
@@ -2878,7 +2874,7 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C101" s="7">
         <v>833</v>
@@ -2899,7 +2895,7 @@
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="7" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C102" s="7">
         <v>2</v>
@@ -2920,7 +2916,7 @@
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -2941,7 +2937,7 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C104" s="7">
         <v>1</v>
@@ -2962,7 +2958,7 @@
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C105" s="7">
         <v>48</v>
@@ -2983,7 +2979,7 @@
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C106" s="7">
         <v>20</v>
@@ -3004,7 +3000,7 @@
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C107" s="7">
         <v>5</v>
@@ -3025,7 +3021,7 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C108" s="7">
         <v>5</v>
@@ -3045,7 +3041,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B109" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="C109" s="7">
         <v>95</v>
@@ -3064,6 +3060,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G109" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
